--- a/scraper/top_remaining_spreadsheets_states/top_remaining_NE.xlsx
+++ b/scraper/top_remaining_spreadsheets_states/top_remaining_NE.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
   <si>
     <t>STATE</t>
   </si>
@@ -44,7 +44,7 @@
     <t>Celebrate!</t>
   </si>
   <si>
-    <t>2019-03-07</t>
+    <t>2019-03-12</t>
   </si>
   <si>
     <t>7-11-21®</t>
@@ -68,12 +68,12 @@
     <t>Super Triple 7s</t>
   </si>
   <si>
+    <t>I Love Cash</t>
+  </si>
+  <si>
     <t>Truck$ &amp; Buck$™</t>
   </si>
   <si>
-    <t>I Love Cash</t>
-  </si>
-  <si>
     <t>Ben There Win That</t>
   </si>
   <si>
@@ -89,15 +89,12 @@
     <t>The Voice</t>
   </si>
   <si>
+    <t>Lucky Symbols LOTERIA</t>
+  </si>
+  <si>
     <t>Lucky Ladybug Crossword</t>
   </si>
   <si>
-    <t>Lucky Symbols LOTERIA</t>
-  </si>
-  <si>
-    <t>2019-02-06</t>
-  </si>
-  <si>
     <t>$5.00 Games</t>
   </si>
   <si>
@@ -116,10 +113,10 @@
     <t>N</t>
   </si>
   <si>
+    <t>Caesars®</t>
+  </si>
+  <si>
     <t>Power 5</t>
-  </si>
-  <si>
-    <t>Caesars®</t>
   </si>
   <si>
     <t>$500 Frenzy</t>
@@ -515,7 +512,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -617,7 +614,7 @@
         <v>996</v>
       </c>
       <c r="E5">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F5" t="s">
         <v>9</v>
@@ -677,7 +674,7 @@
         <v>1011</v>
       </c>
       <c r="E8">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
@@ -714,10 +711,10 @@
         <v>17</v>
       </c>
       <c r="D10">
-        <v>1015</v>
+        <v>1022</v>
       </c>
       <c r="E10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F10" t="s">
         <v>9</v>
@@ -734,10 +731,10 @@
         <v>18</v>
       </c>
       <c r="D11">
-        <v>1022</v>
+        <v>1015</v>
       </c>
       <c r="E11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F11" t="s">
         <v>9</v>
@@ -757,7 +754,7 @@
         <v>992</v>
       </c>
       <c r="E12">
-        <v>2421</v>
+        <v>2347</v>
       </c>
       <c r="F12" t="s">
         <v>9</v>
@@ -834,10 +831,10 @@
         <v>24</v>
       </c>
       <c r="D16">
-        <v>925</v>
+        <v>938</v>
       </c>
       <c r="E16">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="F16" t="s">
         <v>9</v>
@@ -854,10 +851,10 @@
         <v>25</v>
       </c>
       <c r="D17">
-        <v>938</v>
+        <v>925</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="F17" t="s">
         <v>9</v>
@@ -868,19 +865,19 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D18">
-        <v>972</v>
+        <v>985</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -888,19 +885,19 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D19">
-        <v>985</v>
+        <v>971</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -908,16 +905,16 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
         <v>30</v>
       </c>
       <c r="D20">
-        <v>971</v>
+        <v>998</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20" t="s">
         <v>9</v>
@@ -928,16 +925,16 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
         <v>31</v>
       </c>
       <c r="D21">
-        <v>998</v>
+        <v>931</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21" t="s">
         <v>9</v>
@@ -948,16 +945,16 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
         <v>32</v>
       </c>
       <c r="D22">
-        <v>931</v>
+        <v>1017</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22" t="s">
         <v>9</v>
@@ -968,7 +965,7 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
         <v>33</v>
@@ -988,16 +985,16 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
         <v>34</v>
       </c>
       <c r="D24">
-        <v>1017</v>
+        <v>979</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="F24" t="s">
         <v>9</v>
@@ -1008,16 +1005,16 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C25" t="s">
         <v>35</v>
       </c>
       <c r="D25">
-        <v>979</v>
+        <v>1012</v>
       </c>
       <c r="E25">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="F25" t="s">
         <v>9</v>
@@ -1028,19 +1025,19 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D26">
-        <v>1012</v>
+        <v>990</v>
       </c>
       <c r="E26">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1048,19 +1045,19 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D27">
-        <v>990</v>
+        <v>1016</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1068,16 +1065,16 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C28" t="s">
         <v>40</v>
       </c>
       <c r="D28">
-        <v>1016</v>
+        <v>995</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="F28" t="s">
         <v>9</v>
@@ -1088,16 +1085,16 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C29" t="s">
         <v>41</v>
       </c>
       <c r="D29">
-        <v>995</v>
+        <v>914</v>
       </c>
       <c r="E29">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="F29" t="s">
         <v>9</v>
@@ -1108,16 +1105,16 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C30" t="s">
         <v>42</v>
       </c>
       <c r="D30">
-        <v>914</v>
+        <v>1021</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30" t="s">
         <v>9</v>
@@ -1128,16 +1125,16 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C31" t="s">
         <v>43</v>
       </c>
       <c r="D31">
-        <v>1021</v>
+        <v>878</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>2341</v>
       </c>
       <c r="F31" t="s">
         <v>9</v>
@@ -1148,19 +1145,19 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C32" t="s">
         <v>44</v>
       </c>
       <c r="D32">
-        <v>878</v>
+        <v>967</v>
       </c>
       <c r="E32">
-        <v>2557</v>
+        <v>2</v>
       </c>
       <c r="F32" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1168,19 +1165,19 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D33">
-        <v>967</v>
+        <v>980</v>
       </c>
       <c r="E33">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="F33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1188,19 +1185,19 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="C34" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D34">
-        <v>980</v>
+        <v>930</v>
       </c>
       <c r="E34">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="F34" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1208,16 +1205,16 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C35" t="s">
         <v>50</v>
       </c>
       <c r="D35">
-        <v>930</v>
+        <v>999</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F35" t="s">
         <v>9</v>
@@ -1228,16 +1225,16 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C36" t="s">
         <v>51</v>
       </c>
       <c r="D36">
-        <v>999</v>
+        <v>1005</v>
       </c>
       <c r="E36">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F36" t="s">
         <v>9</v>
@@ -1248,38 +1245,18 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C37" t="s">
         <v>52</v>
       </c>
       <c r="D37">
-        <v>1005</v>
+        <v>890</v>
       </c>
       <c r="E37">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F37" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" t="s">
-        <v>6</v>
-      </c>
-      <c r="B38" t="s">
-        <v>49</v>
-      </c>
-      <c r="C38" t="s">
-        <v>53</v>
-      </c>
-      <c r="D38">
-        <v>890</v>
-      </c>
-      <c r="E38">
-        <v>1</v>
-      </c>
-      <c r="F38" t="s">
         <v>9</v>
       </c>
     </row>

--- a/scraper/top_remaining_spreadsheets_states/top_remaining_NE.xlsx
+++ b/scraper/top_remaining_spreadsheets_states/top_remaining_NE.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="52">
   <si>
     <t>STATE</t>
   </si>
@@ -44,96 +44,105 @@
     <t>Celebrate!</t>
   </si>
   <si>
-    <t>2019-03-12</t>
+    <t>2019-04-11</t>
+  </si>
+  <si>
+    <t>Quick 7s</t>
+  </si>
+  <si>
+    <t>Ruby Mine 2X</t>
+  </si>
+  <si>
+    <t>Pocket Change</t>
+  </si>
+  <si>
+    <t>Blackjack</t>
   </si>
   <si>
     <t>7-11-21®</t>
   </si>
   <si>
-    <t>Blackjack</t>
-  </si>
-  <si>
-    <t>Pocket Change</t>
-  </si>
-  <si>
-    <t>Quick 7s</t>
+    <t>2019-03-22</t>
   </si>
   <si>
     <t>Merry Money!</t>
   </si>
   <si>
+    <t>2019-03-13</t>
+  </si>
+  <si>
     <t>$2.00 Games</t>
   </si>
   <si>
     <t>Super Triple 7s</t>
   </si>
   <si>
+    <t>Truck$ &amp; Buck$™</t>
+  </si>
+  <si>
     <t>I Love Cash</t>
   </si>
   <si>
-    <t>Truck$ &amp; Buck$™</t>
-  </si>
-  <si>
     <t>Ben There Win That</t>
   </si>
   <si>
+    <t>Emerald Mine 3X</t>
+  </si>
+  <si>
     <t>$3.00 Games</t>
   </si>
   <si>
+    <t>Lucky Symbols LOTERIA</t>
+  </si>
+  <si>
+    <t>The Voice</t>
+  </si>
+  <si>
+    <t>10X Bingo Multiplier</t>
+  </si>
+  <si>
+    <t>Lucky Ladybug Crossword</t>
+  </si>
+  <si>
     <t>Bonus Crossword</t>
   </si>
   <si>
-    <t>10X Bingo Multiplier</t>
-  </si>
-  <si>
-    <t>The Voice</t>
-  </si>
-  <si>
-    <t>Lucky Symbols LOTERIA</t>
-  </si>
-  <si>
-    <t>Lucky Ladybug Crossword</t>
-  </si>
-  <si>
     <t>$5.00 Games</t>
   </si>
   <si>
-    <t>Red White &amp; Blue</t>
-  </si>
-  <si>
-    <t>2019-02-27</t>
+    <t>Wild Cherry Crossword Doubler</t>
+  </si>
+  <si>
+    <t>2019-04-05</t>
   </si>
   <si>
     <t>Triple Tripler</t>
   </si>
   <si>
-    <t>Wild Cherry Crossword Doubler</t>
+    <t>Caesars®</t>
   </si>
   <si>
     <t>N</t>
   </si>
   <si>
-    <t>Caesars®</t>
+    <t>Diamond Mine 10X</t>
+  </si>
+  <si>
+    <t>Platinum Crossword Corners</t>
+  </si>
+  <si>
+    <t>$500 Frenzy</t>
   </si>
   <si>
     <t>Power 5</t>
   </si>
   <si>
-    <t>$500 Frenzy</t>
-  </si>
-  <si>
     <t>Lucky Break</t>
   </si>
   <si>
     <t>$10.00 Games</t>
   </si>
   <si>
-    <t>Black Diamond Crossword</t>
-  </si>
-  <si>
-    <t>2019-03-05</t>
-  </si>
-  <si>
     <t>The Big $10 Super Ticket ®</t>
   </si>
   <si>
@@ -147,18 +156,6 @@
   </si>
   <si>
     <t>Nebraska Cash Blowout</t>
-  </si>
-  <si>
-    <t>Winter Takes It All</t>
-  </si>
-  <si>
-    <t>2019-02-25</t>
-  </si>
-  <si>
-    <t>$1,500 Frenzy</t>
-  </si>
-  <si>
-    <t>2019-02-13</t>
   </si>
   <si>
     <t>$20.00 Games</t>
@@ -571,10 +568,10 @@
         <v>10</v>
       </c>
       <c r="D3">
-        <v>953</v>
+        <v>982</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
@@ -591,10 +588,10 @@
         <v>11</v>
       </c>
       <c r="D4">
-        <v>1003</v>
+        <v>1018</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>
@@ -614,7 +611,7 @@
         <v>996</v>
       </c>
       <c r="E5">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
         <v>9</v>
@@ -631,10 +628,10 @@
         <v>13</v>
       </c>
       <c r="D6">
-        <v>982</v>
+        <v>1003</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6" t="s">
         <v>9</v>
@@ -671,13 +668,13 @@
         <v>14</v>
       </c>
       <c r="D8">
-        <v>1011</v>
+        <v>953</v>
       </c>
       <c r="E8">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -685,19 +682,19 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
       </c>
       <c r="D9">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="F9" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -705,16 +702,16 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D10">
-        <v>1022</v>
+        <v>1014</v>
       </c>
       <c r="E10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F10" t="s">
         <v>9</v>
@@ -725,16 +722,16 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D11">
         <v>1015</v>
       </c>
       <c r="E11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F11" t="s">
         <v>9</v>
@@ -745,16 +742,16 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D12">
-        <v>992</v>
+        <v>1022</v>
       </c>
       <c r="E12">
-        <v>2347</v>
+        <v>3</v>
       </c>
       <c r="F12" t="s">
         <v>9</v>
@@ -765,16 +762,16 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D13">
-        <v>986</v>
+        <v>992</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>2112</v>
       </c>
       <c r="F13" t="s">
         <v>9</v>
@@ -785,16 +782,16 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D14">
-        <v>1030</v>
+        <v>1019</v>
       </c>
       <c r="E14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F14" t="s">
         <v>9</v>
@@ -805,13 +802,13 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D15">
-        <v>993</v>
+        <v>938</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -825,13 +822,13 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D16">
-        <v>938</v>
+        <v>993</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -845,16 +842,16 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D17">
-        <v>925</v>
+        <v>1030</v>
       </c>
       <c r="E17">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F17" t="s">
         <v>9</v>
@@ -865,19 +862,19 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D18">
-        <v>985</v>
+        <v>925</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -885,16 +882,16 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
         <v>29</v>
       </c>
       <c r="D19">
-        <v>971</v>
+        <v>986</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19" t="s">
         <v>9</v>
@@ -905,10 +902,10 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D20">
         <v>998</v>
@@ -917,7 +914,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -925,16 +922,16 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D21">
-        <v>931</v>
+        <v>971</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21" t="s">
         <v>9</v>
@@ -945,16 +942,16 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D22">
         <v>1017</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22" t="s">
         <v>9</v>
@@ -965,13 +962,13 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D23">
-        <v>1009</v>
+        <v>931</v>
       </c>
       <c r="E23">
         <v>2</v>
@@ -985,16 +982,16 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D24">
-        <v>979</v>
+        <v>1020</v>
       </c>
       <c r="E24">
-        <v>67</v>
+        <v>3</v>
       </c>
       <c r="F24" t="s">
         <v>9</v>
@@ -1005,16 +1002,16 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C25" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D25">
-        <v>1012</v>
+        <v>1027</v>
       </c>
       <c r="E25">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F25" t="s">
         <v>9</v>
@@ -1025,19 +1022,19 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26">
+        <v>979</v>
+      </c>
+      <c r="E26">
         <v>36</v>
       </c>
-      <c r="C26" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26">
-        <v>990</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
       <c r="F26" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1045,16 +1042,16 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C27" t="s">
         <v>39</v>
       </c>
       <c r="D27">
-        <v>1016</v>
+        <v>1009</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F27" t="s">
         <v>9</v>
@@ -1065,16 +1062,16 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C28" t="s">
         <v>40</v>
       </c>
       <c r="D28">
-        <v>995</v>
+        <v>1012</v>
       </c>
       <c r="E28">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F28" t="s">
         <v>9</v>
@@ -1085,16 +1082,16 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C29" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D29">
-        <v>914</v>
+        <v>1016</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29" t="s">
         <v>9</v>
@@ -1105,16 +1102,16 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D30">
-        <v>1021</v>
+        <v>995</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F30" t="s">
         <v>9</v>
@@ -1125,16 +1122,16 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D31">
-        <v>878</v>
+        <v>914</v>
       </c>
       <c r="E31">
-        <v>2341</v>
+        <v>1</v>
       </c>
       <c r="F31" t="s">
         <v>9</v>
@@ -1145,19 +1142,19 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D32">
-        <v>967</v>
+        <v>1021</v>
       </c>
       <c r="E32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F32" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1165,19 +1162,19 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C33" t="s">
         <v>46</v>
       </c>
       <c r="D33">
-        <v>980</v>
+        <v>878</v>
       </c>
       <c r="E33">
-        <v>28</v>
+        <v>1292</v>
       </c>
       <c r="F33" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1185,10 +1182,10 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" t="s">
         <v>48</v>
-      </c>
-      <c r="C34" t="s">
-        <v>49</v>
       </c>
       <c r="D34">
         <v>930</v>
@@ -1205,10 +1202,10 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D35">
         <v>999</v>
@@ -1225,10 +1222,10 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D36">
         <v>1005</v>
@@ -1245,10 +1242,10 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D37">
         <v>890</v>
